--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H2">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I2">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J2">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>245.6781092729789</v>
+        <v>901.1373636531835</v>
       </c>
       <c r="R2">
-        <v>245.6781092729789</v>
+        <v>8110.236272878651</v>
       </c>
       <c r="S2">
-        <v>0.000701418550502328</v>
+        <v>0.00234956850673123</v>
       </c>
       <c r="T2">
-        <v>0.000701418550502328</v>
+        <v>0.00234956850673123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H3">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I3">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J3">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>487.4265876333067</v>
+        <v>1384.420673744489</v>
       </c>
       <c r="R3">
-        <v>487.4265876333067</v>
+        <v>12459.7860637004</v>
       </c>
       <c r="S3">
-        <v>0.001391617884010039</v>
+        <v>0.003609650810516795</v>
       </c>
       <c r="T3">
-        <v>0.001391617884010039</v>
+        <v>0.003609650810516796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H4">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I4">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J4">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>228.8268011541358</v>
+        <v>691.7853314332889</v>
       </c>
       <c r="R4">
-        <v>228.8268011541358</v>
+        <v>6226.0679828996</v>
       </c>
       <c r="S4">
-        <v>0.0006533075480619202</v>
+        <v>0.001803717272985965</v>
       </c>
       <c r="T4">
-        <v>0.0006533075480619202</v>
+        <v>0.001803717272985965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H5">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I5">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J5">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>256.838826597</v>
+        <v>726.1021093539446</v>
       </c>
       <c r="R5">
-        <v>256.838826597</v>
+        <v>6534.918984185501</v>
       </c>
       <c r="S5">
-        <v>0.0007332827413785402</v>
+        <v>0.001893192666979164</v>
       </c>
       <c r="T5">
-        <v>0.0007332827413785402</v>
+        <v>0.001893192666979165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H6">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I6">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J6">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>191.7944042080622</v>
+        <v>553.1061124687666</v>
       </c>
       <c r="R6">
-        <v>191.7944042080622</v>
+        <v>4977.9550122189</v>
       </c>
       <c r="S6">
-        <v>0.0005475789169502239</v>
+        <v>0.001442133857893514</v>
       </c>
       <c r="T6">
-        <v>0.0005475789169502239</v>
+        <v>0.001442133857893514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.36412249423398</v>
+        <v>9.505683333333334</v>
       </c>
       <c r="H7">
-        <v>3.36412249423398</v>
+        <v>28.51705</v>
       </c>
       <c r="I7">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="J7">
-        <v>0.005062090939378154</v>
+        <v>0.01396919972669618</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>362.4778147964335</v>
+        <v>1101.099304817639</v>
       </c>
       <c r="R7">
-        <v>362.4778147964335</v>
+        <v>9909.893743358749</v>
       </c>
       <c r="S7">
-        <v>0.001034885298475103</v>
+        <v>0.002870936611589511</v>
       </c>
       <c r="T7">
-        <v>0.001034885298475103</v>
+        <v>0.002870936611589511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H8">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I8">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J8">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>22663.92876881076</v>
+        <v>29437.82153362128</v>
       </c>
       <c r="R8">
-        <v>22663.92876881076</v>
+        <v>264940.3938025915</v>
       </c>
       <c r="S8">
-        <v>0.06470621299044525</v>
+        <v>0.07675431201939448</v>
       </c>
       <c r="T8">
-        <v>0.06470621299044525</v>
+        <v>0.07675431201939449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H9">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I9">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J9">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>44965.34711552656</v>
+        <v>45225.43439540581</v>
       </c>
       <c r="R9">
-        <v>44965.34711552656</v>
+        <v>407028.9095586523</v>
       </c>
       <c r="S9">
-        <v>0.1283774475875762</v>
+        <v>0.1179179342069548</v>
       </c>
       <c r="T9">
-        <v>0.1283774475875762</v>
+        <v>0.1179179342069549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H10">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I10">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J10">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>21109.38714523295</v>
+        <v>22598.83337180974</v>
       </c>
       <c r="R10">
-        <v>21109.38714523295</v>
+        <v>203389.5003462876</v>
       </c>
       <c r="S10">
-        <v>0.06026794889140854</v>
+        <v>0.0589227672948941</v>
       </c>
       <c r="T10">
-        <v>0.06026794889140854</v>
+        <v>0.0589227672948941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H11">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I11">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J11">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>23693.51053817953</v>
+        <v>23719.87354257994</v>
       </c>
       <c r="R11">
-        <v>23693.51053817953</v>
+        <v>213478.8618832195</v>
       </c>
       <c r="S11">
-        <v>0.06764570057617821</v>
+        <v>0.06184569645781801</v>
       </c>
       <c r="T11">
-        <v>0.06764570057617821</v>
+        <v>0.06184569645781803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H12">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I12">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J12">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>17693.12995810371</v>
+        <v>18068.54280462072</v>
       </c>
       <c r="R12">
-        <v>17693.12995810371</v>
+        <v>162616.8852415865</v>
       </c>
       <c r="S12">
-        <v>0.05051442965670599</v>
+        <v>0.04711077450407528</v>
       </c>
       <c r="T12">
-        <v>0.05051442965670599</v>
+        <v>0.04711077450407529</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>310.341986937697</v>
+        <v>310.5260316666667</v>
       </c>
       <c r="H13">
-        <v>310.341986937697</v>
+        <v>931.578095</v>
       </c>
       <c r="I13">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="J13">
-        <v>0.4669804274007704</v>
+        <v>0.4563375408771294</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>33438.76016927692</v>
+        <v>35970.0597638199</v>
       </c>
       <c r="R13">
-        <v>33438.76016927692</v>
+        <v>323730.5378743791</v>
       </c>
       <c r="S13">
-        <v>0.09546868769845611</v>
+        <v>0.09378605639399275</v>
       </c>
       <c r="T13">
-        <v>0.09546868769845611</v>
+        <v>0.09378605639399275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.9819686662035</v>
+        <v>104.560098</v>
       </c>
       <c r="H14">
-        <v>97.9819686662035</v>
+        <v>313.680294</v>
       </c>
       <c r="I14">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J14">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>7155.513762063057</v>
+        <v>9912.281710945397</v>
       </c>
       <c r="R14">
-        <v>7155.513762063057</v>
+        <v>89210.5353985086</v>
       </c>
       <c r="S14">
-        <v>0.02042921164583282</v>
+        <v>0.02584465573979752</v>
       </c>
       <c r="T14">
-        <v>0.02042921164583282</v>
+        <v>0.02584465573979753</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.9819686662035</v>
+        <v>104.560098</v>
       </c>
       <c r="H15">
-        <v>97.9819686662035</v>
+        <v>313.680294</v>
       </c>
       <c r="I15">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J15">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>14196.5748032121</v>
+        <v>15228.27515328021</v>
       </c>
       <c r="R15">
-        <v>14196.5748032121</v>
+        <v>137054.4763795219</v>
       </c>
       <c r="S15">
-        <v>0.04053165725686457</v>
+        <v>0.03970524046071548</v>
       </c>
       <c r="T15">
-        <v>0.04053165725686457</v>
+        <v>0.0397052404607155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.9819686662035</v>
+        <v>104.560098</v>
       </c>
       <c r="H16">
-        <v>97.9819686662035</v>
+        <v>313.680294</v>
       </c>
       <c r="I16">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J16">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>6664.709890647848</v>
+        <v>7609.462624951791</v>
       </c>
       <c r="R16">
-        <v>6664.709890647848</v>
+        <v>68485.16362456612</v>
       </c>
       <c r="S16">
-        <v>0.01902795151285747</v>
+        <v>0.01984043105731889</v>
       </c>
       <c r="T16">
-        <v>0.01902795151285747</v>
+        <v>0.01984043105731889</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>97.9819686662035</v>
+        <v>104.560098</v>
       </c>
       <c r="H17">
-        <v>97.9819686662035</v>
+        <v>313.680294</v>
       </c>
       <c r="I17">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J17">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>7480.575960900615</v>
+        <v>7986.93845037146</v>
       </c>
       <c r="R17">
-        <v>7480.575960900615</v>
+        <v>71882.44605334316</v>
       </c>
       <c r="S17">
-        <v>0.02135727421114017</v>
+        <v>0.02082463762474268</v>
       </c>
       <c r="T17">
-        <v>0.02135727421114017</v>
+        <v>0.02082463762474269</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>97.9819686662035</v>
+        <v>104.560098</v>
       </c>
       <c r="H18">
-        <v>97.9819686662035</v>
+        <v>313.680294</v>
       </c>
       <c r="I18">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J18">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>5586.120403070102</v>
+        <v>6084.026502474827</v>
       </c>
       <c r="R18">
-        <v>5586.120403070102</v>
+        <v>54756.23852227345</v>
       </c>
       <c r="S18">
-        <v>0.01594854538586217</v>
+        <v>0.01586310549413041</v>
       </c>
       <c r="T18">
-        <v>0.01594854538586217</v>
+        <v>0.01586310549413041</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>97.9819686662035</v>
+        <v>104.560098</v>
       </c>
       <c r="H19">
-        <v>97.9819686662035</v>
+        <v>313.680294</v>
       </c>
       <c r="I19">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="J19">
-        <v>0.1474362591307966</v>
+        <v>0.1536576426108162</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>10557.37118742022</v>
+        <v>12111.81218458405</v>
       </c>
       <c r="R19">
-        <v>10557.37118742022</v>
+        <v>109006.3096612564</v>
       </c>
       <c r="S19">
-        <v>0.03014161911823941</v>
+        <v>0.03157957223411122</v>
       </c>
       <c r="T19">
-        <v>0.03014161911823941</v>
+        <v>0.03157957223411122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.30706353823091</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H20">
-        <v>78.30706353823091</v>
+        <v>235.360351</v>
       </c>
       <c r="I20">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J20">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>5718.677410161373</v>
+        <v>7437.375402035899</v>
       </c>
       <c r="R20">
-        <v>5718.677410161373</v>
+        <v>66936.3786183231</v>
       </c>
       <c r="S20">
-        <v>0.01632699971395852</v>
+        <v>0.01939174172794199</v>
       </c>
       <c r="T20">
-        <v>0.01632699971395852</v>
+        <v>0.01939174172794199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.30706353823091</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H21">
-        <v>78.30706353823091</v>
+        <v>235.360351</v>
       </c>
       <c r="I21">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J21">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>11345.88435273835</v>
+        <v>11426.06741244832</v>
       </c>
       <c r="R21">
-        <v>11345.88435273835</v>
+        <v>102834.6067120349</v>
       </c>
       <c r="S21">
-        <v>0.03239284843250814</v>
+        <v>0.0297916047329814</v>
       </c>
       <c r="T21">
-        <v>0.03239284843250814</v>
+        <v>0.02979160473298141</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>78.30706353823091</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H22">
-        <v>78.30706353823091</v>
+        <v>235.360351</v>
       </c>
       <c r="I22">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J22">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>5326.427586373365</v>
+        <v>5709.526000157456</v>
       </c>
       <c r="R22">
-        <v>5326.427586373365</v>
+        <v>51385.73400141711</v>
       </c>
       <c r="S22">
-        <v>0.01520711441505925</v>
+        <v>0.0148866565957818</v>
       </c>
       <c r="T22">
-        <v>0.01520711441505925</v>
+        <v>0.0148866565957818</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>78.30706353823091</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H23">
-        <v>78.30706353823091</v>
+        <v>235.360351</v>
       </c>
       <c r="I23">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J23">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>5978.466702056156</v>
+        <v>5992.753364018534</v>
       </c>
       <c r="R23">
-        <v>5978.466702056156</v>
+        <v>53934.78027616681</v>
       </c>
       <c r="S23">
-        <v>0.01706870612441609</v>
+        <v>0.01562512569185249</v>
       </c>
       <c r="T23">
-        <v>0.01706870612441609</v>
+        <v>0.0156251256918525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>78.30706353823091</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H24">
-        <v>78.30706353823091</v>
+        <v>235.360351</v>
       </c>
       <c r="I24">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J24">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>4464.420252930683</v>
+        <v>4564.961970852328</v>
       </c>
       <c r="R24">
-        <v>4464.420252930683</v>
+        <v>41084.65773767095</v>
       </c>
       <c r="S24">
-        <v>0.01274605699266625</v>
+        <v>0.01190239281352038</v>
       </c>
       <c r="T24">
-        <v>0.01274605699266625</v>
+        <v>0.01190239281352038</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>78.30706353823091</v>
+        <v>78.45345033333332</v>
       </c>
       <c r="H25">
-        <v>78.30706353823091</v>
+        <v>235.360351</v>
       </c>
       <c r="I25">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="J25">
-        <v>0.1178308689726974</v>
+        <v>0.1152922813146632</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>8437.437496141667</v>
+        <v>9087.725373688212</v>
       </c>
       <c r="R25">
-        <v>8437.437496141667</v>
+        <v>81789.52836319391</v>
       </c>
       <c r="S25">
-        <v>0.02408914329408915</v>
+        <v>0.02369475975258513</v>
       </c>
       <c r="T25">
-        <v>0.02408914329408915</v>
+        <v>0.02369475975258513</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.630602596677</v>
+        <v>37.654794</v>
       </c>
       <c r="H26">
-        <v>36.630602596677</v>
+        <v>112.964382</v>
       </c>
       <c r="I26">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="J26">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>2675.092004796529</v>
+        <v>3569.668860635694</v>
       </c>
       <c r="R26">
-        <v>2675.092004796529</v>
+        <v>32127.01974572125</v>
       </c>
       <c r="S26">
-        <v>0.007637469866637079</v>
+        <v>0.009307328574644159</v>
       </c>
       <c r="T26">
-        <v>0.007637469866637079</v>
+        <v>0.009307328574644159</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.630602596677</v>
+        <v>37.654794</v>
       </c>
       <c r="H27">
-        <v>36.630602596677</v>
+        <v>112.964382</v>
       </c>
       <c r="I27">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="J27">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>5307.395808937566</v>
+        <v>5484.095509092624</v>
       </c>
       <c r="R27">
-        <v>5307.395808937566</v>
+        <v>49356.85958183361</v>
       </c>
       <c r="S27">
-        <v>0.01515277810572341</v>
+        <v>0.01429888340644733</v>
       </c>
       <c r="T27">
-        <v>0.01515277810572341</v>
+        <v>0.01429888340644733</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.630602596677</v>
+        <v>37.654794</v>
       </c>
       <c r="H28">
-        <v>36.630602596677</v>
+        <v>112.964382</v>
       </c>
       <c r="I28">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="J28">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>2491.604759015946</v>
+        <v>2740.364183603376</v>
       </c>
       <c r="R28">
-        <v>2491.604759015946</v>
+        <v>24663.27765243038</v>
       </c>
       <c r="S28">
-        <v>0.007113608142237052</v>
+        <v>0.007145052066941875</v>
       </c>
       <c r="T28">
-        <v>0.007113608142237052</v>
+        <v>0.007145052066941875</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.630602596677</v>
+        <v>37.654794</v>
       </c>
       <c r="H29">
-        <v>36.630602596677</v>
+        <v>112.964382</v>
       </c>
       <c r="I29">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="J29">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>2796.616652513959</v>
+        <v>2876.30298547938</v>
       </c>
       <c r="R29">
-        <v>2796.616652513959</v>
+        <v>25886.72686931443</v>
       </c>
       <c r="S29">
-        <v>0.007984426469748812</v>
+        <v>0.007499490292026458</v>
       </c>
       <c r="T29">
-        <v>0.007984426469748812</v>
+        <v>0.007499490292026459</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.630602596677</v>
+        <v>37.654794</v>
       </c>
       <c r="H30">
-        <v>36.630602596677</v>
+        <v>112.964382</v>
       </c>
       <c r="I30">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="J30">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>2088.373599015364</v>
+        <v>2191.015205831484</v>
       </c>
       <c r="R30">
-        <v>2088.373599015364</v>
+        <v>19719.13685248336</v>
       </c>
       <c r="S30">
-        <v>0.005962370791046284</v>
+        <v>0.005712714324175068</v>
       </c>
       <c r="T30">
-        <v>0.005962370791046284</v>
+        <v>0.005712714324175068</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.630602596677</v>
+        <v>37.654794</v>
       </c>
       <c r="H31">
-        <v>36.630602596677</v>
+        <v>112.964382</v>
       </c>
       <c r="I31">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="J31">
-        <v>0.05511911109848659</v>
+        <v>0.05533608890684003</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>3946.877917399803</v>
+        <v>4361.77663851465</v>
       </c>
       <c r="R31">
-        <v>3946.877917399803</v>
+        <v>39255.98974663184</v>
       </c>
       <c r="S31">
-        <v>0.01126845772309394</v>
+        <v>0.01137262024260515</v>
       </c>
       <c r="T31">
-        <v>0.01126845772309394</v>
+        <v>0.01137262024260514</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>137.94597810888</v>
+        <v>139.7743806666667</v>
       </c>
       <c r="H32">
-        <v>137.94597810888</v>
+        <v>419.323142</v>
       </c>
       <c r="I32">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="J32">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>10074.04074664002</v>
+        <v>13250.59046081728</v>
       </c>
       <c r="R32">
-        <v>10074.04074664002</v>
+        <v>119255.3141473555</v>
       </c>
       <c r="S32">
-        <v>0.02876169585935024</v>
+        <v>0.0345487506101363</v>
       </c>
       <c r="T32">
-        <v>0.02876169585935024</v>
+        <v>0.03454875061013631</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>137.94597810888</v>
+        <v>139.7743806666667</v>
       </c>
       <c r="H33">
-        <v>137.94597810888</v>
+        <v>419.323142</v>
       </c>
       <c r="I33">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="J33">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>19986.94681974136</v>
+        <v>20356.93126618272</v>
       </c>
       <c r="R33">
-        <v>19986.94681974136</v>
+        <v>183212.3813956445</v>
       </c>
       <c r="S33">
-        <v>0.05706334727484005</v>
+        <v>0.05307737369008187</v>
       </c>
       <c r="T33">
-        <v>0.05706334727484005</v>
+        <v>0.05307737369008188</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>137.94597810888</v>
+        <v>139.7743806666667</v>
       </c>
       <c r="H34">
-        <v>137.94597810888</v>
+        <v>419.323142</v>
       </c>
       <c r="I34">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="J34">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>9383.052179828863</v>
+        <v>10172.21622734883</v>
       </c>
       <c r="R34">
-        <v>9383.052179828863</v>
+        <v>91549.94604613951</v>
       </c>
       <c r="S34">
-        <v>0.02678890227028923</v>
+        <v>0.02652239254018724</v>
       </c>
       <c r="T34">
-        <v>0.02678890227028923</v>
+        <v>0.02652239254018724</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>137.94597810888</v>
+        <v>139.7743806666667</v>
       </c>
       <c r="H35">
-        <v>137.94597810888</v>
+        <v>419.323142</v>
       </c>
       <c r="I35">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="J35">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>10531.68640915606</v>
+        <v>10676.82028495667</v>
       </c>
       <c r="R35">
-        <v>10531.68640915606</v>
+        <v>96091.38256461003</v>
       </c>
       <c r="S35">
-        <v>0.03006828828712331</v>
+        <v>0.02783806521113028</v>
       </c>
       <c r="T35">
-        <v>0.03006828828712331</v>
+        <v>0.02783806521113029</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>137.94597810888</v>
+        <v>139.7743806666667</v>
       </c>
       <c r="H36">
-        <v>137.94597810888</v>
+        <v>419.323142</v>
       </c>
       <c r="I36">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="J36">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>7864.53725440679</v>
+        <v>8133.035953571937</v>
       </c>
       <c r="R36">
-        <v>7864.53725440679</v>
+        <v>73197.32358214744</v>
       </c>
       <c r="S36">
-        <v>0.02245349550141742</v>
+        <v>0.02120556300446539</v>
       </c>
       <c r="T36">
-        <v>0.02245349550141742</v>
+        <v>0.02120556300446539</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>137.94597810888</v>
+        <v>139.7743806666667</v>
       </c>
       <c r="H37">
-        <v>137.94597810888</v>
+        <v>419.323142</v>
       </c>
       <c r="I37">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="J37">
-        <v>0.2075712424578709</v>
+        <v>0.205407246563855</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>14863.41736680702</v>
+        <v>16190.89001667943</v>
       </c>
       <c r="R37">
-        <v>14863.41736680702</v>
+        <v>145718.0101501148</v>
       </c>
       <c r="S37">
-        <v>0.04243551326485058</v>
+        <v>0.04221510150785397</v>
       </c>
       <c r="T37">
-        <v>0.04243551326485058</v>
+        <v>0.04221510150785397</v>
       </c>
     </row>
   </sheetData>
